--- a/medicine/Sexualité et sexologie/WikiFeet/WikiFeet.xlsx
+++ b/medicine/Sexualité et sexologie/WikiFeet/WikiFeet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,16 +490,18 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-WikiFeet est un site web basé sur le principe du wiki dédié au partage de photos de pieds de célébrités. En 2016, il a été décrit par Lauren Oyler de Vice Media comme « ...le plus grand forum de discussion et la plus grande galerie de photos de pieds de femmes sur Internet »[1]. Il comprend principalement des images de pieds d'acteurs, d'actrices et d'autres artistes célèbres, bien que certaines photos de pieds de politiciens soient également présentes sur le site[2],[3]. 
-Il a été fondé en 2008 par Eli Ozer, un ancien programmeur informatique et animateur israélien, qui dirige maintenant le site à plein temps[1],[4],[5]. Selon Ozer, le site recevait environ 3 millions de visites par mois en juillet 2017[6].
-Bien que le site ait « wiki » dans son nom, il n'est pas affilié à Wikipédia ou à la Wikimedia Foundation[5].
-En janvier 2018, a été lancé WikiFeet Men, un homologue officiel pour le partage des pieds des célébrités masculines[7], ainsi que wikiFeet X, un homologue officiel pour le partage des pieds des artistes adultes, qui permet la nudité[8][source secondaire souhaitée].
-En janvier 2019, WikiFeet a été impliqué dans la démystification d'un canular impliquant la députée américaine Alexandria Ocasio-Cortez ; une photo des pieds d'une femme dans une baignoire, censée être une photo de nudité publiée en ligne par Ocasio-Cortez en 2016, a été reconnue comme étant de quelqu'un d'autre par les utilisateurs du site, la courte longueur des orteils de la photo étant un élément-clé de preuve[3]. Sydney Leathers, impliquée dans les scandales des sextos d'Anthony Weiner (en) en 2013, était reconnue comme étant la personne présentant ces pieds[9],[10], et Leathers a écrit dans le Washington Babylon (en) admettre être la femme sur la photo[11].
-En 2021, la journaliste Laura Bassett a découvert qu'un homme de 58 ans nommé Robert Hamilton avait publié des photos de ses pieds sur wikiFeet, en copiant des photos de son flux Instagram. Il a accepté d'être interviewé. Il a dit qu'il se considérait comme un fétichiste des pieds et qu'il admirait les pieds des femmes depuis son enfance[12].
-Depuis juin 2021, le site web ne permet pas aux visiteurs de l'Union européenne d'afficher des images en pleine résolution en raison d'une nouvelle directive européenne sur le droit d'auteur[13][source secondaire souhaitée].
+WikiFeet est un site web basé sur le principe du wiki dédié au partage de photos de pieds de célébrités. En 2016, il a été décrit par Lauren Oyler de Vice Media comme « ...le plus grand forum de discussion et la plus grande galerie de photos de pieds de femmes sur Internet ». Il comprend principalement des images de pieds d'acteurs, d'actrices et d'autres artistes célèbres, bien que certaines photos de pieds de politiciens soient également présentes sur le site,. 
+Il a été fondé en 2008 par Eli Ozer, un ancien programmeur informatique et animateur israélien, qui dirige maintenant le site à plein temps. Selon Ozer, le site recevait environ 3 millions de visites par mois en juillet 2017.
+Bien que le site ait « wiki » dans son nom, il n'est pas affilié à Wikipédia ou à la Wikimedia Foundation.
+En janvier 2018, a été lancé WikiFeet Men, un homologue officiel pour le partage des pieds des célébrités masculines, ainsi que wikiFeet X, un homologue officiel pour le partage des pieds des artistes adultes, qui permet la nudité[source secondaire souhaitée].
+En janvier 2019, WikiFeet a été impliqué dans la démystification d'un canular impliquant la députée américaine Alexandria Ocasio-Cortez ; une photo des pieds d'une femme dans une baignoire, censée être une photo de nudité publiée en ligne par Ocasio-Cortez en 2016, a été reconnue comme étant de quelqu'un d'autre par les utilisateurs du site, la courte longueur des orteils de la photo étant un élément-clé de preuve. Sydney Leathers, impliquée dans les scandales des sextos d'Anthony Weiner (en) en 2013, était reconnue comme étant la personne présentant ces pieds et Leathers a écrit dans le Washington Babylon (en) admettre être la femme sur la photo.
+En 2021, la journaliste Laura Bassett a découvert qu'un homme de 58 ans nommé Robert Hamilton avait publié des photos de ses pieds sur wikiFeet, en copiant des photos de son flux Instagram. Il a accepté d'être interviewé. Il a dit qu'il se considérait comme un fétichiste des pieds et qu'il admirait les pieds des femmes depuis son enfance.
+Depuis juin 2021, le site web ne permet pas aux visiteurs de l'Union européenne d'afficher des images en pleine résolution en raison d'une nouvelle directive européenne sur le droit d'auteur[source secondaire souhaitée].
 </t>
         </is>
       </c>
